--- a/Jízdní řády/linka_13_smer_b.xlsx
+++ b/Jízdní řády/linka_13_smer_b.xlsx
@@ -1,13 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.ruzicka\SynologyDrive\GitHub\MHD-Most---Litv-nov_WEB-version\Jízdní řády\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB79152-A867-4092-9854-6883EEE7674C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1530" yWindow="3210" windowWidth="18750" windowHeight="16035" tabRatio="859" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="List1" sheetId="1" r:id="rId1"/>
+    <sheet name="Osek, kolonie" sheetId="1" r:id="rId1"/>
+    <sheet name="Osek, zbrojnice" sheetId="2" r:id="rId2"/>
+    <sheet name="Osek, náměstí" sheetId="3" r:id="rId3"/>
+    <sheet name="Osek, autokempink" sheetId="4" r:id="rId4"/>
+    <sheet name="Loučná, konečná" sheetId="5" r:id="rId5"/>
+    <sheet name="Loučná" sheetId="6" r:id="rId6"/>
+    <sheet name="Horní Lom" sheetId="7" r:id="rId7"/>
+    <sheet name="Litvínov, Koldům" sheetId="8" r:id="rId8"/>
+    <sheet name="Litvínov, Citadela" sheetId="9" r:id="rId9"/>
+    <sheet name="Litvínov, sportovní škola" sheetId="10" r:id="rId10"/>
+    <sheet name="Litvínov, mototechna" sheetId="11" r:id="rId11"/>
+    <sheet name="Litvínov, Má" sheetId="12" r:id="rId12"/>
+    <sheet name="Litvínov, náměstí Míru" sheetId="13" r:id="rId13"/>
+    <sheet name="Litvínov, nádraží" sheetId="14" r:id="rId14"/>
+    <sheet name="Litvínov, Bílý sloup" sheetId="15" r:id="rId15"/>
+    <sheet name="Litvínov, požární stanice" sheetId="16" r:id="rId16"/>
+    <sheet name="Litvínov, Chudeřín" sheetId="17" r:id="rId17"/>
+    <sheet name="Litvínov, Janáčkova" sheetId="18" r:id="rId18"/>
+    <sheet name="Hamr, škola" sheetId="19" r:id="rId19"/>
+    <sheet name="Hamr, sídliště" sheetId="20" r:id="rId20"/>
+    <sheet name="Hamr" sheetId="21" r:id="rId21"/>
+    <sheet name="Janov, škola" sheetId="22" r:id="rId22"/>
+    <sheet name="Janov, blok D3" sheetId="23" r:id="rId23"/>
+    <sheet name="Janov, sportovní hala" sheetId="24" r:id="rId24"/>
+    <sheet name="Janov, konečná" sheetId="25" r:id="rId25"/>
+    <sheet name="Janov, sportovní hala 2" sheetId="26" r:id="rId26"/>
+    <sheet name=" Janov, blok D3 2" sheetId="27" r:id="rId27"/>
+    <sheet name="Janov, horní část 2" sheetId="28" r:id="rId28"/>
+    <sheet name="Osada Poslušnost " sheetId="29" r:id="rId29"/>
+    <sheet name="Křížatky " sheetId="30" r:id="rId30"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,8 +53,43 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+  <si>
+    <t>Hodiny</t>
+  </si>
+  <si>
+    <t>Minuty</t>
+  </si>
+  <si>
+    <t>16, 23</t>
+  </si>
+  <si>
+    <t>01, 31</t>
+  </si>
+  <si>
+    <t>17, 24</t>
+  </si>
+  <si>
+    <t>02, 32</t>
+  </si>
+  <si>
+    <t>19, 26</t>
+  </si>
+  <si>
+    <t>04, 34</t>
+  </si>
+  <si>
+    <t>20, 27</t>
+  </si>
+  <si>
+    <t>05, 35</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -29,15 +99,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,15 +121,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +434,1156 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65222D9-37C3-4E1C-8546-86E70F7DE888}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C249D44A-0982-40EF-9460-187EC9339EC1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6843CBE5-2E0E-43E4-B175-F929572BCEE4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2383A61-4270-4B7A-8C2F-955D6366226D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68575F4E-E0BA-464A-9434-CEF3A7FD8BB8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B54175-19D2-4FC8-A829-C24884D99BA4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01D5A0D-7C76-4F22-A798-CE7B8E343D25}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{504B6128-8831-40FA-BECB-E2C79983B4D4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF399AA-EC7A-4868-8D6D-2F49F6DBF7DC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6967FE27-8B60-4583-A473-A3834E5CB8D9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36C1EC6-4083-4D35-BD6D-A6A7DC8EBD58}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF818F3-1115-45C5-9615-A1463ADB8E1F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB8017D-2B11-4412-B0B3-25122357A43D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A87F49-5046-41BB-9D78-137282EF1AD6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86577D7B-86AB-4B60-8FA7-370EFDA1D88C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DFD4C52-6995-417D-A60F-9B19C32E5664}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58FC88F7-BC18-4CE7-9C5E-4194A2CE02CA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6546C9-F39E-4D8F-9DAB-B3494A838CD4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AD35" sqref="AD35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891E24A5-CD01-4645-B7A6-878A5EFDA313}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0AC76B2-26AC-4BF4-A9FB-7928A308E172}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4479C0BB-D478-423A-90C4-13071EED55F5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7FAD305-844E-49BE-9F63-EAB22AE64AAE}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C48D9A3-61CF-4947-A431-4BD533A0B951}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A1FD6D4-9259-432A-AB3A-2DA32C6A7F1F}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9663A8A-3FA8-45C6-8FC2-33BD366D56F2}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22EF523F-3067-4783-B7BF-10BBB3A077F9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC3D8BAB-1AC5-4B1C-8E45-28F10B34E67B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFB6E85-5DBA-425A-B30E-4599F8E00E90}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{124AF9E4-6AE5-48DD-A450-58FBC6B7B3D3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>